--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyawwinthu/Downloads/1. プロジェクト/1. ホームページ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyawwinthu/Downloads/dev/home-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E1AC8-6F24-2947-A83F-C8D563AA84B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6791D34C-4432-604A-B5D4-8EE0B7473BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>No.</t>
   </si>
@@ -58,12 +58,139 @@
   </si>
   <si>
     <t>Footer</t>
+  </si>
+  <si>
+    <t>会社情報</t>
+  </si>
+  <si>
+    <t>sectionごとに表示</t>
+  </si>
+  <si>
+    <t>History
+・Jquery入れる
+2月
+東京八丁堀に本社移転
+ミャンマー支社設立</t>
+  </si>
+  <si>
+    <t>業務内容</t>
+  </si>
+  <si>
+    <t>ページ作成</t>
+  </si>
+  <si>
+    <t>採用情報</t>
+  </si>
+  <si>
+    <t>テキスト内容修正</t>
+  </si>
+  <si>
+    <t>タイトルの背景を黄色</t>
+  </si>
+  <si>
+    <t>採用情報
+career-app-guide.php</t>
+  </si>
+  <si>
+    <t>graduate-recru-guide.php</t>
+  </si>
+  <si>
+    <t>・タイトルの背景を黄色
+・entry form</t>
+  </si>
+  <si>
+    <t>security-info.php</t>
+  </si>
+  <si>
+    <t>・タイトルの背景を黄色
+・private-security.phpと同じデザインに修正</t>
+  </si>
+  <si>
+    <t>問い合わせ</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>住所
+104-0043  東京都中央区湊2丁目4-1  ＴＯＭＡＣビル 5階</t>
+  </si>
+  <si>
+    <t>スマホで会社のAll for your dreamsは改行されてる</t>
+  </si>
+  <si>
+    <t>ピョー</t>
+  </si>
+  <si>
+    <t>ピョー
+チョー</t>
+  </si>
+  <si>
+    <t>チョー</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>アカ→黒</t>
+  </si>
+  <si>
+    <t>「現在、100名以上の正社員が在籍しており、８割程が女性です。」を削除</t>
+  </si>
+  <si>
+    <t>トップ画面＞ロゴ</t>
+  </si>
+  <si>
+    <t>トップ画面＞社長メッセージ</t>
+  </si>
+  <si>
+    <t>SES業務</t>
+  </si>
+  <si>
+    <t>System Engineering Service
+エンジニアを提供</t>
+  </si>
+  <si>
+    <t>トップ画面＞事業内容</t>
+  </si>
+  <si>
+    <t>組織図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">業務統括本部
+</t>
+  </si>
+  <si>
+    <t>SES事業（その他）
+受託開発事業（クラウド導入・移行支援）
+DX推進事業
+組織図のままにしたい</t>
+  </si>
+  <si>
+    <t>Our Service→提供サービス</t>
+  </si>
+  <si>
+    <t>動画＞</t>
+  </si>
+  <si>
+    <t>これは後で、
+　クラウドサーバー
+　アプリの開発
+システム開発　X インフラ
+D X絡みをやっている</t>
+  </si>
+  <si>
+    <t>メンバー</t>
+  </si>
+  <si>
+    <t>言語
+java, C#, VB.Net</t>
   </si>
   <si>
     <t>New
 2023/2/1
 事務所を八丁堀に移動
-2023/2/1
+2023/1/22
 ミャンマー支社設立
 2023/1/22
 会社は10年周を迎う
@@ -73,76 +200,33 @@
 DX方針を宣言</t>
   </si>
   <si>
-    <t>会社情報</t>
-  </si>
-  <si>
-    <t>sectionごとに表示</t>
-  </si>
-  <si>
-    <t>History
-・Jquery入れる
-2月
-東京八丁堀に本社移転
-ミャンマー支社設立</t>
-  </si>
-  <si>
-    <t>業務内容</t>
-  </si>
-  <si>
-    <t>ページ作成</t>
-  </si>
-  <si>
-    <t>採用情報</t>
-  </si>
-  <si>
-    <t>テキスト内容修正</t>
-  </si>
-  <si>
-    <t>タイトルの背景を黄色</t>
-  </si>
-  <si>
-    <t>採用情報
-career-app-guide.php</t>
-  </si>
-  <si>
-    <t>graduate-recru-guide.php</t>
-  </si>
-  <si>
-    <t>・タイトルの背景を黄色
-・entry form</t>
-  </si>
-  <si>
-    <t>security-info.php</t>
-  </si>
-  <si>
-    <t>・タイトルの背景を黄色
-・private-security.phpと同じデザインに修正</t>
-  </si>
-  <si>
-    <t>問い合わせ</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>住所
-104-0043  東京都中央区湊2丁目4-1  ＴＯＭＡＣビル 5階</t>
-  </si>
-  <si>
-    <t>スマホで会社のAll for your dreamsは改行されてる</t>
-  </si>
-  <si>
-    <t>ピョー</t>
-  </si>
-  <si>
-    <t>ピョー
-チョー</t>
-  </si>
-  <si>
-    <t>チョー</t>
-  </si>
-  <si>
-    <t>英語</t>
+    <t>STAR SE Myanmar</t>
+  </si>
+  <si>
+    <t>授業員</t>
+  </si>
+  <si>
+    <t>2023/1(130)
+jパートナ:10</t>
+  </si>
+  <si>
+    <t>支社</t>
+  </si>
+  <si>
+    <t>所在地→本社</t>
+  </si>
+  <si>
+    <t>NTTエレクトロニクステクノ株式会社
+アクセンチュア株式会社
+ハイテクシステム株式会社(TCSグループ企業)
+キヤノン電子テクノロジー株式会社
+株式会社コスメディア
+テクバン株式会社
+株式会社クレスコ
+コムチュア株式会社など多数</t>
+  </si>
+  <si>
+    <t>状況</t>
   </si>
 </sst>
 </file>
@@ -181,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,13 +288,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,9 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -648,7 +750,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,8 +763,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -672,11 +777,12 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -687,10 +793,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -698,13 +805,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -712,173 +820,186 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -886,287 +1007,367 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyawwinthu/Downloads/dev/home-page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6791D34C-4432-604A-B5D4-8EE0B7473BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45701FB7-BB53-4086-9AF3-7078CD0800C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>No.</t>
   </si>
@@ -159,12 +151,6 @@
   <si>
     <t xml:space="preserve">業務統括本部
 </t>
-  </si>
-  <si>
-    <t>SES事業（その他）
-受託開発事業（クラウド導入・移行支援）
-DX推進事業
-組織図のままにしたい</t>
   </si>
   <si>
     <t>Our Service→提供サービス</t>
@@ -206,14 +192,22 @@
     <t>授業員</t>
   </si>
   <si>
+    <t>所在地→本社</t>
+  </si>
+  <si>
+    <t>状況</t>
+  </si>
+  <si>
+    <t>SES事業（その他）
+受託開発事業（クラウド導入・移行支援）
+DX推進事業
+組織図のままにしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>2023/1(130)
-jパートナ:10</t>
-  </si>
-  <si>
-    <t>支社</t>
-  </si>
-  <si>
-    <t>所在地→本社</t>
+パートナ:10</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NTTエレクトロニクステクノ株式会社
@@ -224,20 +218,30 @@
 テクバン株式会社
 株式会社クレスコ
 コムチュア株式会社など多数</t>
-  </si>
-  <si>
-    <t>状況</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要顧客</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Room No.11/A, 11th floor, Pyay Road, Red Hill Tower (or) KBZ Tower, Sanchaung Township, Yangon.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -246,12 +250,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,9 +340,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,7 +466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,21 +762,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="105.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="105.875" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -782,7 +808,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -797,7 +823,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -805,14 +831,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -827,7 +853,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -842,7 +868,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -857,7 +883,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -872,7 +898,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -887,7 +913,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -902,7 +928,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -917,7 +943,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -932,7 +958,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -947,7 +973,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -960,7 +986,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -973,7 +999,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -986,7 +1012,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -999,7 +1025,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1014,7 +1040,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1027,7 +1053,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1040,7 +1066,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1053,7 +1079,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1066,7 +1092,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1074,121 +1100,125 @@
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1197,7 +1227,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1206,7 +1236,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1215,7 +1245,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1224,7 +1254,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1233,7 +1263,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1242,7 +1272,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1251,7 +1281,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1260,7 +1290,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1269,7 +1299,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1278,7 +1308,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1287,7 +1317,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1296,7 +1326,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1305,7 +1335,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1314,7 +1344,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1323,7 +1353,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1332,7 +1362,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1341,36 +1371,55 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45701FB7-BB53-4086-9AF3-7078CD0800C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343C217-277B-468F-B422-7316E47EC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -58,13 +58,6 @@
     <t>sectionごとに表示</t>
   </si>
   <si>
-    <t>History
-・Jquery入れる
-2月
-東京八丁堀に本社移転
-ミャンマー支社設立</t>
-  </si>
-  <si>
     <t>業務内容</t>
   </si>
   <si>
@@ -85,10 +78,6 @@
   </si>
   <si>
     <t>graduate-recru-guide.php</t>
-  </si>
-  <si>
-    <t>・タイトルの背景を黄色
-・entry form</t>
   </si>
   <si>
     <t>security-info.php</t>
@@ -189,9 +178,6 @@
     <t>STAR SE Myanmar</t>
   </si>
   <si>
-    <t>授業員</t>
-  </si>
-  <si>
     <t>所在地→本社</t>
   </si>
   <si>
@@ -232,12 +218,69 @@
     <t>Room No.11/A, 11th floor, Pyay Road, Red Hill Tower (or) KBZ Tower, Sanchaung Township, Yangon.</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>授業員</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History
+・Jquery入れる
+2月
+東京八丁堀に本社移転
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミャンマー支社設立</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>private-security.php</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・タイトルの背景を黄色
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・entry form</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +301,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -764,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -790,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -804,9 +855,11 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -819,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -831,12 +884,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -846,12 +901,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -864,9 +921,11 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -876,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -888,58 +947,64 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -948,67 +1013,75 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1017,11 +1090,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1033,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1045,11 +1118,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1058,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1071,10 +1144,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1084,10 +1157,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1097,10 +1170,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1110,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1123,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1134,10 +1207,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1147,10 +1220,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1163,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1173,46 +1246,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343C217-277B-468F-B422-7316E47EC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01631486-4CF6-4939-A2AB-93FF77012395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -116,33 +116,16 @@
     <t>アカ→黒</t>
   </si>
   <si>
-    <t>「現在、100名以上の正社員が在籍しており、８割程が女性です。」を削除</t>
-  </si>
-  <si>
     <t>トップ画面＞ロゴ</t>
   </si>
   <si>
     <t>トップ画面＞社長メッセージ</t>
   </si>
   <si>
-    <t>SES業務</t>
-  </si>
-  <si>
-    <t>System Engineering Service
-エンジニアを提供</t>
-  </si>
-  <si>
     <t>トップ画面＞事業内容</t>
   </si>
   <si>
     <t>組織図</t>
-  </si>
-  <si>
-    <t xml:space="preserve">業務統括本部
-</t>
-  </si>
-  <si>
-    <t>Our Service→提供サービス</t>
   </si>
   <si>
     <t>動画＞</t>
@@ -156,10 +139,6 @@
   </si>
   <si>
     <t>メンバー</t>
-  </si>
-  <si>
-    <t>言語
-java, C#, VB.Net</t>
   </si>
   <si>
     <t>New
@@ -176,9 +155,6 @@
   </si>
   <si>
     <t>STAR SE Myanmar</t>
-  </si>
-  <si>
-    <t>所在地→本社</t>
   </si>
   <si>
     <t>状況</t>
@@ -273,6 +249,44 @@
       </rPr>
       <t>・entry form</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>所在地→本社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「現在、100名以上の正社員が在籍しており、８割程が女性です。」を削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System Engineering Service
+エンジニアを提供</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Our Service→提供サービス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言語
+java, C#, VB.Net</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">業務統括本部
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SES業務</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -815,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -841,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -858,7 +872,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -874,7 +888,9 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -884,13 +900,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -907,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -924,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -935,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -956,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -973,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -990,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
@@ -1001,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -1022,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1039,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
@@ -1047,14 +1063,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -1062,14 +1078,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1131,36 +1147,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1170,23 +1190,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1196,21 +1218,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1220,10 +1244,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1236,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1246,14 +1270,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1261,14 +1285,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1276,14 +1300,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1291,7 +1315,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01631486-4CF6-4939-A2AB-93FF77012395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7A0B8-B22E-4A60-A3E8-2B14FF096E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -206,27 +206,6 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">History
-・Jquery入れる
-2月
-東京八丁堀に本社移転
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ミャンマー支社設立</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -289,12 +268,31 @@
     <t>SES業務</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History
+・Jquery入れる
+2月
+東京八丁堀に本社移転
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミャンマー支社設立</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +324,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +348,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +435,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -943,20 +987,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -999,7 +1045,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1017,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -1063,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1078,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1154,7 +1200,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1165,25 +1211,25 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:5" s="13" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
@@ -1208,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1218,7 +1264,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1239,18 +1285,18 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+    <row r="27" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
@@ -1315,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7A0B8-B22E-4A60-A3E8-2B14FF096E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAA1B5-2ADB-441B-ACB4-BD317842F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -332,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +447,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -987,20 +978,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1045,7 +1036,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1218,18 +1209,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="13" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
@@ -1285,18 +1276,20 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\home-page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAA1B5-2ADB-441B-ACB4-BD317842F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B8E31-3213-1E48-B3B5-EC80B000730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>No.</t>
   </si>
@@ -221,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -279,13 +279,46 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>ミャンマー支社設立</t>
     </r>
+  </si>
+  <si>
+    <t>全てのリンクチェック</t>
+  </si>
+  <si>
+    <t>200文字チェック</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>https://www.star-se.co.jp/starseapp/public/login</t>
+  </si>
+  <si>
+    <t>タイトル修正</t>
+  </si>
+  <si>
+    <t>会社概要</t>
+  </si>
+  <si>
+    <t>支社にリンク　（https://www.star-se-myanmar.com/）</t>
+  </si>
+  <si>
+    <t>footer のロコ</t>
+  </si>
+  <si>
+    <t>リンク　（https://www.star-se-myanmar.com/）</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>写真</t>
   </si>
 </sst>
 </file>
@@ -296,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -305,13 +338,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -319,20 +352,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,9 +488,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -854,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,19 +906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="105.875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="105.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -910,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -927,7 +969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -944,7 +986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -961,7 +1003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -978,7 +1020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="101.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1029,7 +1071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1046,7 +1088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1061,7 +1103,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1078,7 +1120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1095,7 +1137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1110,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1125,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1138,7 +1180,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1151,7 +1193,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1166,7 +1208,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1179,7 +1221,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1209,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1222,7 +1264,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1237,7 +1279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1250,7 +1292,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1263,7 +1305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1276,7 +1318,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1291,7 +1333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1304,7 +1346,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1319,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1334,7 +1376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1349,7 +1391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1360,79 +1402,103 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1441,7 +1507,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1450,7 +1516,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1459,7 +1525,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1468,7 +1534,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1477,7 +1543,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1486,7 +1552,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1495,7 +1561,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1504,7 +1570,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1513,7 +1579,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1522,7 +1588,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1531,7 +1597,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1540,7 +1606,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1549,7 +1615,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B8E31-3213-1E48-B3B5-EC80B000730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394016F-6DEC-AE4C-92A0-FB8D99159517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16540" activeTab="1" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Myanmar" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>No.</t>
   </si>
@@ -319,6 +321,55 @@
   </si>
   <si>
     <t>写真</t>
+  </si>
+  <si>
+    <t>写真を外す</t>
+  </si>
+  <si>
+    <t>リンク</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>News &amp; Events</t>
+  </si>
+  <si>
+    <t>&lt;a&gt; tagを外し</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Head Office           STAR SE 株式会社　（リンク）
+                                    英語のアドレス</t>
+  </si>
+  <si>
+    <t>STAR SE 株式会社　（リンク）</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>英語で正しく書く
+例：Home, About Us</t>
+  </si>
+  <si>
+    <t>内容を探す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form
+label を表示
+</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
   </si>
 </sst>
 </file>
@@ -445,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,6 +656,55 @@
         <a:xfrm>
           <a:off x="2921000" y="11607800"/>
           <a:ext cx="7772400" cy="1410067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70448E0-546C-594C-3DD2-8573C810CF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="355600"/>
+          <a:ext cx="7772400" cy="3773009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -1630,4 +1739,519 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E629BDF-4C01-5841-A6AA-A523DE294FDE}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="105.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2058AF-49B9-CA4A-855D-4E16315CD0B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394016F-6DEC-AE4C-92A0-FB8D99159517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794D25E-00CC-D94D-A463-783ECC12BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16540" activeTab="1" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>No.</t>
   </si>
@@ -370,6 +370,46 @@
   </si>
   <si>
     <t>Contact Us</t>
+  </si>
+  <si>
+    <t>事業内容</t>
+  </si>
+  <si>
+    <t>02 受託開発事業
+スクラッチ開発           greeen
+モバイルアプリ開発   yellow
+スクラッチ開発   青
+DX推進体制   add border</t>
+  </si>
+  <si>
+    <t>職場風景</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Cloud Deploy/Migration
+Office・Sales
+New Graduate
+Qualifications &amp; Activities</t>
+  </si>
+  <si>
+    <t>改行しない
+Bold なし</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Management Philosophy → Philosophy</t>
+  </si>
+  <si>
+    <t>Scratch Development →  Scratch Develop
+Mobile App Develop
+クラウド導入・移行支援</t>
+  </si>
+  <si>
+    <t>Recruitment information  → Recruit</t>
   </si>
 </sst>
 </file>
@@ -496,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,15 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,6 +687,182 @@
         <a:xfrm>
           <a:off x="2921000" y="11607800"/>
           <a:ext cx="7772400" cy="1410067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7467600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B319AA8C-80EE-2448-4996-0E7415554AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="28092400"/>
+          <a:ext cx="7289800" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4394200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3276600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF07D591-B657-047D-0CE9-00CEBCCB3D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3136900" y="29108400"/>
+          <a:ext cx="4089400" cy="3098800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5892800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4838700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87709E1E-B02B-921F-EBD0-F2C5E733A357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="33007300"/>
+          <a:ext cx="5524500" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3758743</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4737100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96230CB8-3436-A3EF-8066-B1EA899FF386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3289300" y="37769800"/>
+          <a:ext cx="3301543" cy="4635500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1607,12 +1814,16 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
@@ -1620,52 +1831,66 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="386" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1675,16 +1900,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -1693,7 +1922,9 @@
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
@@ -1746,7 +1977,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1775,339 +2006,339 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -8,26 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794D25E-00CC-D94D-A463-783ECC12BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F7334-85B6-5448-9819-4E126B9F24E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{38A5D876-5728-4B04-AB94-B17EC12E0691}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="日本" sheetId="2" r:id="rId1"/>
     <sheet name="Myanmar" sheetId="3" r:id="rId2"/>
     <sheet name="1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
   <si>
     <t>No.</t>
   </si>
@@ -202,13 +210,6 @@
   </si>
   <si>
     <t>完了</t>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>private-security.php</t>
@@ -238,13 +239,6 @@
   </si>
   <si>
     <t>「現在、100名以上の正社員が在籍しており、８割程が女性です。」を削除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -382,12 +376,6 @@
 DX推進体制   add border</t>
   </si>
   <si>
-    <t>職場風景</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Cloud Deploy/Migration
 Office・Sales
 New Graduate
@@ -410,6 +398,54 @@
   </si>
   <si>
     <t>Recruitment information  → Recruit</t>
+  </si>
+  <si>
+    <t>文字色を緑</t>
+  </si>
+  <si>
+    <t>トップ画面＞動画</t>
+  </si>
+  <si>
+    <t>トップ画面＞提供サービス</t>
+  </si>
+  <si>
+    <t>動画を撮り直す
+テストデータは、朴主任に作っていただいて、テスト試験作成して、テストユーザが受験するのを動画記録して切り替える。</t>
+  </si>
+  <si>
+    <t>会社情報＞写真</t>
+  </si>
+  <si>
+    <t>色を買える</t>
+  </si>
+  <si>
+    <t>事業内容＞写真</t>
+  </si>
+  <si>
+    <t>会社情報＞組織図</t>
+  </si>
+  <si>
+    <t>システム開発事業とインフラソリューション事業を平行ではなく、上下にする。
+インフラソリューション事業の背景の色を緑にする。</t>
+  </si>
+  <si>
+    <t>事業内容＞SES業務</t>
+  </si>
+  <si>
+    <t>採用情報＞</t>
+  </si>
+  <si>
+    <t>キャリア募集要項の３つで、したの１つを真ん中にする。
+新卒/第二新卒募集要項の１つを真ん中にする。</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>採用情報＞新卒/第二新卒募集要項＞職場風景</t>
+  </si>
+  <si>
+    <t>HHW・HYP</t>
   </si>
 </sst>
 </file>
@@ -489,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,34 +588,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,6 +890,56 @@
         <a:xfrm>
           <a:off x="3289300" y="37769800"/>
           <a:ext cx="3301543" cy="4635500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7899400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>3223482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71251B66-6CED-BC85-E58A-14868A0ECE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="45605700"/>
+          <a:ext cx="7772400" cy="3172682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,16 +1297,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88183AB-CA75-D544-99C2-E3761FC127FF}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="192" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
     <col min="3" max="3" width="105.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
@@ -1252,579 +1329,659 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,10 +1989,12 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,12 +2002,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
@@ -1856,10 +2017,12 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.2">
@@ -1867,10 +2030,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
@@ -1878,10 +2043,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="386" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,80 +2056,236 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="286" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1976,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E629BDF-4C01-5841-A6AA-A523DE294FDE}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2010,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -2021,10 +2344,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2034,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2047,10 +2370,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2060,15 +2383,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2076,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2086,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2099,10 +2422,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2112,10 +2435,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2125,10 +2448,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
@@ -2138,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2207,7 +2530,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
@@ -2221,7 +2544,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
@@ -2235,21 +2558,21 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="2" r:id="rId1"/>
@@ -576,9 +576,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -612,14 +612,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +632,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -650,21 +650,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,15 +711,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +737,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,6 +813,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -825,97 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,67 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,15 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1126,6 +1117,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1134,16 +1134,16 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,124 +1155,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,8 +1969,8 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelCol="4"/>
@@ -3509,7 +3509,7 @@
   <sheetPr/>
   <dimension ref="D1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -311,7 +311,13 @@
 DX推進体制   add border</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>採用情報＞新卒/第二新卒募集要項＞職場風景</t>
+  </si>
+  <si>
+    <t>to confirm</t>
   </si>
   <si>
     <t>Cloud Deploy/Migration
@@ -322,9 +328,6 @@
   <si>
     <t>改行しない
 Bold なし</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>Space</t>
@@ -576,8 +579,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -611,8 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +659,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -686,14 +705,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
@@ -711,9 +722,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,26 +736,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,12 +771,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -783,12 +798,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -813,13 +822,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,91 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,49 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,6 +1038,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1059,15 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1086,8 +1097,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,26 +1135,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1134,149 +1143,149 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,19 +1295,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1313,13 +1325,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1967,13 +1979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="41.8333333333333" customWidth="1"/>
@@ -1982,998 +1994,1013 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="46" customHeight="1" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="281.25" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="101" customHeight="1" spans="1:5">
-      <c r="A7" s="12">
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="101" customHeight="1" spans="1:5">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:5">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="91" customHeight="1" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="150" customHeight="1" spans="1:5">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="137" customHeight="1" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A22" s="12">
+      <c r="E21" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="54" customHeight="1" spans="1:5">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A23" s="12">
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" s="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="12">
+      <c r="E23" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" s="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" s="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="12">
+      <c r="E24" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" s="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" s="11" customFormat="1" ht="94" customHeight="1" spans="1:5">
-      <c r="A26" s="12">
+      <c r="E25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" s="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="12">
+      <c r="E26" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" s="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" s="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="12">
+      <c r="E27" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" s="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" ht="107" customHeight="1" spans="1:5">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="8">
+      <c r="E41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" ht="156" customHeight="1" spans="1:5">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+    </row>
+    <row r="44" ht="73" customHeight="1" spans="1:5">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="156" customHeight="1" spans="1:5">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="E44" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" ht="291" customHeight="1" spans="1:5">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" ht="73" customHeight="1" spans="1:5">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="E45" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" ht="397" customHeight="1" spans="1:5">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" ht="291" customHeight="1" spans="1:5">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="E46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" ht="386" customHeight="1" spans="1:5">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" ht="397" customHeight="1" spans="1:5">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
+      <c r="E47" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" ht="386" customHeight="1" spans="1:5">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="E48" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" ht="85" customHeight="1" spans="1:5">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
+      <c r="C49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="E49" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" ht="85" customHeight="1" spans="1:5">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="E50" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" ht="137" customHeight="1" spans="1:6">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" ht="286" customHeight="1" spans="1:5">
+      <c r="A53" s="9">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="137" customHeight="1" spans="1:5">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="E53" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="9">
+        <v>54</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="286" customHeight="1" spans="1:5">
-      <c r="A53" s="8">
-        <v>53</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
+      <c r="E54" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="9">
+        <v>55</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="8">
-        <v>54</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
+      <c r="E55" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" ht="70" customHeight="1" spans="1:5">
+      <c r="A56" s="9">
+        <v>56</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="8">
-        <v>55</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="E56" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" ht="56" customHeight="1" spans="1:5">
+      <c r="A57" s="9">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" ht="70" customHeight="1" spans="1:5">
-      <c r="A56" s="8">
-        <v>56</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" ht="56" customHeight="1" spans="1:5">
-      <c r="A57" s="8">
-        <v>57</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2988,8 +3015,8 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1" outlineLevelCol="4"/>
@@ -3001,484 +3028,486 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
-        <v>74</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="56" customHeight="1" spans="1:5">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" s="6" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="1:5">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="56" customHeight="1" spans="1:5">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:5">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" s="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" s="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" s="6" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="8">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3507,223 +3536,200 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:H32"/>
+  <dimension ref="D1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="54.75" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6">
+    <row r="1" spans="4:5">
       <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="4:5">
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="4:5">
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="D10" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="D11" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="14" spans="4:6">
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="D15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="D16" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="20" spans="4:7">
+      <c r="E17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" ht="19.5" spans="4:6">
-      <c r="D23" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="23" ht="19.5" spans="4:5">
+      <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="E24" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="4:5">
-      <c r="D28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="E28" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" ht="37.5" spans="4:5">
-      <c r="D29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="E29" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="30" ht="37.5" spans="4:5">
-      <c r="D30" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>148</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="4:5">
       <c r="D32" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -579,9 +579,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -614,9 +614,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,6 +643,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -636,8 +651,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,17 +675,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,13 +684,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,9 +704,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,22 +733,6 @@
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,7 +822,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +906,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,145 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,17 +1038,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1060,6 +1049,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,6 +1079,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1090,15 +1099,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,145 +1143,145 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3096,7 +3096,9 @@
         <v>97</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" ht="56" customHeight="1" spans="1:5">
       <c r="A6" s="9">
@@ -3109,7 +3111,9 @@
         <v>99</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" s="6" customFormat="1" customHeight="1" spans="1:5">
       <c r="A7" s="9">
@@ -3122,7 +3126,9 @@
         <v>100</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="9">
@@ -3135,7 +3141,9 @@
         <v>102</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="9">
@@ -3174,7 +3182,9 @@
         <v>97</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="9">

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -578,8 +578,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -608,6 +608,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -615,7 +636,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,54 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,11 +710,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,21 +744,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +822,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -834,7 +864,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,61 +954,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,90 +997,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1038,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1049,17 +1058,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,11 +1077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,17 +1125,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,148 +1140,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3016,7 +3016,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1" outlineLevelCol="4"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -579,8 +579,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -607,6 +607,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
@@ -615,14 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,8 +636,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,17 +658,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,7 +683,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,14 +720,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
@@ -742,6 +735,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -752,9 +752,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,7 +822,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,31 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +930,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,43 +960,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,73 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,9 +1040,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,21 +1094,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1103,6 +1105,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,17 +1135,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1143,7 +1143,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,136 +1152,136 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3016,7 +3016,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1" outlineLevelCol="4"/>
@@ -3195,7 +3195,9 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="9"/>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="2" r:id="rId1"/>
@@ -578,10 +578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -607,9 +607,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,59 +644,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,8 +666,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,33 +728,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,6 +740,21 @@
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,13 +822,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,151 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,32 +1038,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1079,17 +1053,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,8 +1082,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,8 +1106,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,153 +1120,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1981,8 +1981,8 @@
   <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelCol="5"/>
@@ -3015,7 +3015,7 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/残作業リスト.xlsx
+++ b/残作業リスト.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="2" r:id="rId1"/>
     <sheet name="Myanmar" sheetId="3" r:id="rId2"/>
     <sheet name="1" sheetId="4" r:id="rId3"/>
     <sheet name="シート4" sheetId="5" r:id="rId4"/>
+    <sheet name="シート5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -572,18 +573,70 @@
   <si>
     <t>DX Promotion Department</t>
   </si>
+  <si>
+    <t>What is an IT technical support?</t>
+  </si>
+  <si>
+    <t>IT Technical Support is an IT professional who monitors and maintains the computer systems and networks of an organisation. IT Technical Support provide technical assistance and support to employees.</t>
+  </si>
+  <si>
+    <t>Updating the company website with tech tips and brief documents.</t>
+  </si>
+  <si>
+    <t>What is a web application development?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Web application development is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>the creation of application programs that reside on remote servers and are delivered to the user's device over the Internet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>MobileApplication Developer  of sample</t>
+  </si>
+  <si>
+    <t>The role of a Mobile Developer is to discuss software requirements with clients and develop software for mobile devices, such as smartphones and tablets. Their responsibilities include following client specifications, designing applications, solving technical issues, writing source code, assessing program effectiveness, making changes on client request, and collaborating with other internal departments.</t>
+  </si>
+  <si>
+    <t>System Maintenance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,32 +660,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,9 +681,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,9 +691,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,7 +736,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,8 +779,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,58 +811,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -780,6 +846,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,12 +859,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +888,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +930,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +972,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,25 +1002,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,115 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1104,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1055,26 +1136,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,6 +1169,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1112,25 +1187,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1140,148 +1206,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,10 +1364,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1393,6 +1459,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1721,6 +1791,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="476250"/>
+              <a:ext cx="685800" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1981,7 +2097,7 @@
   <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -2680,7 +2796,7 @@
         <v>58</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2826,7 +2942,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" ht="137" customHeight="1" spans="1:6">
       <c r="A52" s="9">
@@ -2842,7 +2958,7 @@
         <v>58</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" ht="286" customHeight="1" spans="1:5">
       <c r="A53" s="9">
@@ -3276,7 +3392,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" s="3" customFormat="1" customHeight="1" spans="1:5">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3290,7 +3406,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:5">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3304,7 +3420,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3561,7 +3677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E1" t="s">
@@ -3569,122 +3685,122 @@
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="4:5">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="4:5">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3692,23 +3808,23 @@
       <c r="D23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3737,10 +3853,10 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3748,4 +3864,99 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A6:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>